--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
   <si>
     <t>Student Name</t>
   </si>
@@ -68,13 +68,16 @@
   </si>
   <si>
     <t>Note: Time 9PM to 10PM</t>
+  </si>
+  <si>
+    <t>Bharat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +86,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +157,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,13 +475,14 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="18.75">
@@ -485,11 +498,21 @@
       <c r="D1" s="4">
         <v>45290</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="E1" s="4">
+        <v>45291</v>
+      </c>
+      <c r="F1" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G1" s="4">
+        <v>45293</v>
+      </c>
+      <c r="H1" s="4">
+        <v>45294</v>
+      </c>
+      <c r="I1" s="4">
+        <v>45295</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -512,10 +535,18 @@
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -540,10 +571,18 @@
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -568,10 +607,18 @@
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -596,10 +643,18 @@
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -624,10 +679,18 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -652,10 +715,18 @@
       <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -680,10 +751,18 @@
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -708,10 +787,18 @@
       <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -736,10 +823,18 @@
       <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -758,12 +853,24 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -785,11 +892,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 G2:G11 F3:F11">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>Student Name</t>
   </si>
@@ -464,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,7 +475,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -547,7 +547,9 @@
       <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -583,7 +585,9 @@
       <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -619,7 +623,9 @@
       <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -655,7 +661,9 @@
       <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -691,7 +699,9 @@
       <c r="G6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -727,7 +737,9 @@
       <c r="G7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -763,7 +775,9 @@
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -799,7 +813,9 @@
       <c r="G9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -835,7 +851,9 @@
       <c r="G10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -871,7 +889,9 @@
       <c r="G11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -892,7 +912,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 G2:G11 F3:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:H11">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
   <si>
     <t>Student Name</t>
   </si>
@@ -464,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,7 +475,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -550,7 +550,9 @@
       <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -588,7 +590,9 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -621,12 +625,14 @@
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -664,7 +670,9 @@
       <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -702,7 +710,9 @@
       <c r="H6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -738,9 +748,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -778,7 +790,9 @@
       <c r="H8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -816,7 +830,9 @@
       <c r="H9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -854,7 +870,9 @@
       <c r="H10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -892,7 +910,9 @@
       <c r="H11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -912,7 +932,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:H11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="17">
   <si>
     <t>Student Name</t>
   </si>
@@ -464,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,7 +475,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -513,7 +513,9 @@
       <c r="I1" s="4">
         <v>45295</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="4">
+        <v>45296</v>
+      </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -553,7 +555,9 @@
       <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -593,7 +597,9 @@
       <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -633,7 +639,9 @@
       <c r="I4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -673,7 +681,9 @@
       <c r="I5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -713,7 +723,9 @@
       <c r="I6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -753,7 +765,9 @@
       <c r="I7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -793,7 +807,9 @@
       <c r="I8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -833,7 +849,9 @@
       <c r="I9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -873,7 +891,9 @@
       <c r="I10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -913,7 +933,9 @@
       <c r="I11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -932,7 +954,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="18">
   <si>
     <t>Student Name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Bharat</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,11 +141,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,6 +172,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,7 +490,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -516,7 +531,9 @@
       <c r="J1" s="4">
         <v>45296</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="4">
+        <v>45297</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -558,7 +575,9 @@
       <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -600,7 +619,9 @@
       <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -642,7 +663,9 @@
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -684,7 +707,9 @@
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -726,7 +751,9 @@
       <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -768,7 +795,9 @@
       <c r="J7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -810,7 +839,9 @@
       <c r="J8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -852,7 +883,9 @@
       <c r="J9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -894,7 +927,9 @@
       <c r="J10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -936,7 +971,9 @@
       <c r="J11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -947,6 +984,41 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
     </row>
+    <row r="12" spans="1:20" ht="18.75">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="15" spans="1:20">
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -954,7 +1026,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:K9 K2:K8 K10:K11">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="19">
   <si>
     <t>Student Name</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Chandrakant</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,7 +493,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -534,8 +537,12 @@
       <c r="K1" s="4">
         <v>45297</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="L1" s="4">
+        <v>45298</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45299</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -578,8 +585,12 @@
       <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -622,8 +633,12 @@
       <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -666,8 +681,12 @@
       <c r="K4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -710,8 +729,12 @@
       <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -754,8 +777,12 @@
       <c r="K6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -798,8 +825,12 @@
       <c r="K7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -842,8 +873,12 @@
       <c r="K8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -886,8 +921,12 @@
       <c r="K9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -930,8 +969,12 @@
       <c r="K10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -974,8 +1017,12 @@
       <c r="K11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1018,6 +1065,53 @@
       <c r="K12" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="L12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18.75">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="B15" s="1" t="s">
@@ -1026,7 +1120,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:K9 K2:K8 K10:K11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:M9 L12:M12 K2:M8 K10:M11">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="19">
   <si>
     <t>Student Name</t>
   </si>
@@ -482,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,7 +493,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -543,8 +543,12 @@
       <c r="M1" s="4">
         <v>45299</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="N1" s="4">
+        <v>45300</v>
+      </c>
+      <c r="O1" s="4">
+        <v>45301</v>
+      </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
@@ -591,8 +595,12 @@
       <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -639,8 +647,12 @@
       <c r="M3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -687,8 +699,12 @@
       <c r="M4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -735,8 +751,12 @@
       <c r="M5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -783,8 +803,12 @@
       <c r="M6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -831,8 +855,12 @@
       <c r="M7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -879,8 +907,12 @@
       <c r="M8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -927,8 +959,12 @@
       <c r="M9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -975,8 +1011,12 @@
       <c r="M10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1023,8 +1063,12 @@
       <c r="M11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -1071,6 +1115,12 @@
       <c r="M12" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="N12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="18.75">
       <c r="A13" s="1">
@@ -1112,6 +1162,12 @@
       <c r="M13" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="N13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="B15" s="1" t="s">
@@ -1120,7 +1176,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:M9 L12:M12 K2:M8 K10:M11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:O9 L12:O12 N13:O13 K2:O8 K10:O11">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="19">
   <si>
     <t>Student Name</t>
   </si>
@@ -482,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -549,7 +549,9 @@
       <c r="O1" s="4">
         <v>45301</v>
       </c>
-      <c r="P1" s="5"/>
+      <c r="P1" s="4">
+        <v>45302</v>
+      </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -601,7 +603,9 @@
       <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -653,7 +657,9 @@
       <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -705,7 +711,9 @@
       <c r="O4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -757,7 +765,9 @@
       <c r="O5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="7"/>
+      <c r="P5" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -809,7 +819,9 @@
       <c r="O6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -861,7 +873,9 @@
       <c r="O7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="7"/>
+      <c r="P7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -913,7 +927,9 @@
       <c r="O8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -965,7 +981,9 @@
       <c r="O9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="7"/>
+      <c r="P9" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -1017,7 +1035,9 @@
       <c r="O10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -1069,7 +1089,9 @@
       <c r="O11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -1121,6 +1143,9 @@
       <c r="O12" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="P12" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="18.75">
       <c r="A13" s="1">
@@ -1168,6 +1193,9 @@
       <c r="O13" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="P13" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="B15" s="1" t="s">
@@ -1176,7 +1204,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:O9 L12:O12 N13:O13 K2:O8 K10:O11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:P9 L12:P12 N13:P13 K2:P8 K10:P11">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="19">
   <si>
     <t>Student Name</t>
   </si>
@@ -482,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -503,7 +503,7 @@
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="18.75">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -552,12 +552,26 @@
       <c r="P1" s="4">
         <v>45302</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.75">
+      <c r="Q1" s="4">
+        <v>45303</v>
+      </c>
+      <c r="R1" s="4">
+        <v>45304</v>
+      </c>
+      <c r="S1" s="4">
+        <v>45305</v>
+      </c>
+      <c r="T1" s="4">
+        <v>45306</v>
+      </c>
+      <c r="U1" s="4">
+        <v>45307</v>
+      </c>
+      <c r="V1" s="4">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="18.75">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -606,12 +620,26 @@
       <c r="P2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" ht="18.75">
+      <c r="Q2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -660,12 +688,26 @@
       <c r="P3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" ht="18.75">
+      <c r="Q3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -714,12 +756,26 @@
       <c r="P4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" ht="18.75">
+      <c r="Q4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.75">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -768,12 +824,26 @@
       <c r="P5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" ht="18.75">
+      <c r="Q5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18.75">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -822,12 +892,26 @@
       <c r="P6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" ht="18.75">
+      <c r="Q6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18.75">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -876,12 +960,26 @@
       <c r="P7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" ht="18.75">
+      <c r="Q7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="18.75">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -930,12 +1028,26 @@
       <c r="P8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" ht="18.75">
+      <c r="Q8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18.75">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -984,12 +1096,26 @@
       <c r="P9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" ht="18.75">
+      <c r="Q9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18.75">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1038,12 +1164,26 @@
       <c r="P10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" ht="18.75">
+      <c r="Q10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18.75">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1092,12 +1232,26 @@
       <c r="P11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" ht="18.75">
+      <c r="Q11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1146,8 +1300,26 @@
       <c r="P12" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="18.75">
+      <c r="Q12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1196,15 +1368,33 @@
       <c r="P13" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="Q13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:P9 L12:P12 N13:P13 K2:P8 K10:P11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:Q9 L12:Q12 N13:Q13 K2:Q8 K10:Q11 R2:V13">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="19">
   <si>
     <t>Student Name</t>
   </si>
@@ -482,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -503,7 +503,7 @@
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="18.75">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -570,8 +570,23 @@
       <c r="V1" s="4">
         <v>45308</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="18.75">
+      <c r="W1" s="4">
+        <v>45309</v>
+      </c>
+      <c r="X1" s="4">
+        <v>45310</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>45311</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>45312</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="18.75">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -638,8 +653,23 @@
       <c r="V2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75">
+      <c r="W2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="18.75">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -706,8 +736,23 @@
       <c r="V3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75">
+      <c r="W3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="18.75">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -774,8 +819,23 @@
       <c r="V4" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75">
+      <c r="W4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="18.75">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -842,8 +902,23 @@
       <c r="V5" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="18.75">
+      <c r="W5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="18.75">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -910,8 +985,23 @@
       <c r="V6" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="18.75">
+      <c r="W6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="18.75">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -978,8 +1068,23 @@
       <c r="V7" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="18.75">
+      <c r="W7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="18.75">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1046,8 +1151,23 @@
       <c r="V8" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="18.75">
+      <c r="W8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="18.75">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1114,8 +1234,23 @@
       <c r="V9" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="18.75">
+      <c r="W9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="18.75">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1182,8 +1317,23 @@
       <c r="V10" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="18.75">
+      <c r="W10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="18.75">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1250,8 +1400,23 @@
       <c r="V11" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="18.75">
+      <c r="W11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="18.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1318,8 +1483,23 @@
       <c r="V12" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="18.75">
+      <c r="W12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="18.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1386,15 +1566,30 @@
       <c r="V13" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:Q9 L12:Q12 N13:Q13 K2:Q8 K10:Q11 R2:V13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:Q9 L12:Q12 N13:Q13 K2:Q8 K10:Q11 R2:AA13">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="19">
   <si>
     <t>Student Name</t>
   </si>
@@ -482,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -501,9 +501,11 @@
     <col min="1" max="1" width="6.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" ht="18.75">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -585,8 +587,11 @@
       <c r="AA1" s="4">
         <v>45313</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="18.75">
+      <c r="AB1" s="4">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -654,22 +659,25 @@
         <v>3</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="18.75">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -737,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>4</v>
@@ -746,13 +754,16 @@
         <v>4</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="18.75">
+      <c r="AB3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -832,10 +843,13 @@
         <v>4</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="18.75">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -903,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X5" s="7" t="s">
         <v>4</v>
@@ -917,8 +931,11 @@
       <c r="AA5" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="18.75">
+      <c r="AB5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1000,8 +1017,11 @@
       <c r="AA6" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="18.75">
+      <c r="AB6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1081,10 +1101,13 @@
         <v>4</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="18.75">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18.75">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1166,8 +1189,11 @@
       <c r="AA8" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="18.75">
+      <c r="AB8" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1235,22 +1261,25 @@
         <v>4</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="18.75">
+      <c r="AB9" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1332,8 +1361,11 @@
       <c r="AA10" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="18.75">
+      <c r="AB10" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18.75">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1413,10 +1445,13 @@
         <v>4</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="18.75">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1498,8 +1533,11 @@
       <c r="AA12" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="18.75">
+      <c r="AB12" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="18.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1567,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X13" s="7" t="s">
         <v>4</v>
@@ -1581,15 +1619,18 @@
       <c r="AA13" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB13" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:Q9 L12:Q12 N13:Q13 K2:Q8 K10:Q11 R2:AA13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F3:F11 G2:I11 J4:J6 J9:Q9 L12:Q12 N13:Q13 K2:Q8 K10:Q11 R2:AA13 AB2:AB12">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 B1.xlsx
+++ b/React B10 B1.xlsx
@@ -482,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -588,7 +588,7 @@
         <v>45313</v>
       </c>
       <c r="AB1" s="4">
-        <v>45299</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="18.75">
@@ -674,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="18.75">
